--- a/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Olga Arango.xlsx
+++ b/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Olga Arango.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,11 +398,6 @@
           <t>Revisar</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Observación</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Olga Arango.xlsx
+++ b/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Olga Arango.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,15 +385,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Porc_trans</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cost_trans</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Porc_producto</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Valor_producto</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Valor_Neto</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Part_profesional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Revisar</t>
         </is>
@@ -424,9 +444,21 @@
         <v>90000</v>
       </c>
       <c r="F2">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G2">
+        <v>3240</v>
+      </c>
+      <c r="H2">
+        <v>0.04534444444444444</v>
+      </c>
+      <c r="I2">
+        <v>4081</v>
+      </c>
+      <c r="J2">
+        <v>82679</v>
+      </c>
+      <c r="K2">
         <v>40500</v>
       </c>
     </row>
@@ -455,9 +487,21 @@
         <v>32000</v>
       </c>
       <c r="F3">
+        <v>0.036</v>
+      </c>
+      <c r="G3">
+        <v>1152</v>
+      </c>
+      <c r="H3">
+        <v>0.26</v>
+      </c>
+      <c r="I3">
         <v>8320</v>
       </c>
-      <c r="G3">
+      <c r="J3">
+        <v>22528</v>
+      </c>
+      <c r="K3">
         <v>14400</v>
       </c>
     </row>
@@ -486,9 +530,21 @@
         <v>22000</v>
       </c>
       <c r="F4">
+        <v>0.036</v>
+      </c>
+      <c r="G4">
+        <v>791.9999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.25</v>
+      </c>
+      <c r="I4">
         <v>5500</v>
       </c>
-      <c r="G4">
+      <c r="J4">
+        <v>15708</v>
+      </c>
+      <c r="K4">
         <v>8800</v>
       </c>
     </row>
@@ -517,9 +573,21 @@
         <v>20000</v>
       </c>
       <c r="F5">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G5">
+        <v>720</v>
+      </c>
+      <c r="H5">
+        <v>0.20405</v>
+      </c>
+      <c r="I5">
+        <v>4081</v>
+      </c>
+      <c r="J5">
+        <v>15199</v>
+      </c>
+      <c r="K5">
         <v>11000</v>
       </c>
     </row>
@@ -548,9 +616,21 @@
         <v>35000</v>
       </c>
       <c r="F6">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G6">
+        <v>1260</v>
+      </c>
+      <c r="H6">
+        <v>0.1166</v>
+      </c>
+      <c r="I6">
+        <v>4081</v>
+      </c>
+      <c r="J6">
+        <v>29659</v>
+      </c>
+      <c r="K6">
         <v>19250</v>
       </c>
     </row>
@@ -579,9 +659,21 @@
         <v>35000</v>
       </c>
       <c r="F7">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G7">
+        <v>1260</v>
+      </c>
+      <c r="H7">
+        <v>0.1166</v>
+      </c>
+      <c r="I7">
+        <v>4081</v>
+      </c>
+      <c r="J7">
+        <v>29659</v>
+      </c>
+      <c r="K7">
         <v>19250</v>
       </c>
     </row>
@@ -610,9 +702,21 @@
         <v>55000</v>
       </c>
       <c r="F8">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G8">
+        <v>1980</v>
+      </c>
+      <c r="H8">
+        <v>0.0742</v>
+      </c>
+      <c r="I8">
+        <v>4081</v>
+      </c>
+      <c r="J8">
+        <v>48939</v>
+      </c>
+      <c r="K8">
         <v>30250</v>
       </c>
     </row>
@@ -641,9 +745,21 @@
         <v>190000</v>
       </c>
       <c r="F9">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G9">
+        <v>6839.999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.02147894736842105</v>
+      </c>
+      <c r="I9">
+        <v>4081</v>
+      </c>
+      <c r="J9">
+        <v>179079</v>
+      </c>
+      <c r="K9">
         <v>104500</v>
       </c>
     </row>
@@ -672,10 +788,22 @@
         <v>145000</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G10">
-        <v>79750</v>
+        <v>5220</v>
+      </c>
+      <c r="H10">
+        <v>0.3364413793103448</v>
+      </c>
+      <c r="I10">
+        <v>48784</v>
+      </c>
+      <c r="J10">
+        <v>90996</v>
+      </c>
+      <c r="K10">
+        <v>30966</v>
       </c>
     </row>
     <row r="11">
@@ -703,9 +831,21 @@
         <v>45000</v>
       </c>
       <c r="F11">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G11">
+        <v>1620</v>
+      </c>
+      <c r="H11">
+        <v>0.09068888888888889</v>
+      </c>
+      <c r="I11">
+        <v>4081</v>
+      </c>
+      <c r="J11">
+        <v>39299</v>
+      </c>
+      <c r="K11">
         <v>24750</v>
       </c>
     </row>
@@ -734,9 +874,21 @@
         <v>20000</v>
       </c>
       <c r="F12">
-        <v>4081</v>
+        <v>0</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.20405</v>
+      </c>
+      <c r="I12">
+        <v>4081</v>
+      </c>
+      <c r="J12">
+        <v>15919</v>
+      </c>
+      <c r="K12">
         <v>11000</v>
       </c>
     </row>
@@ -765,9 +917,21 @@
         <v>35000</v>
       </c>
       <c r="F13">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G13">
+        <v>1260</v>
+      </c>
+      <c r="H13">
+        <v>0.1166</v>
+      </c>
+      <c r="I13">
+        <v>4081</v>
+      </c>
+      <c r="J13">
+        <v>29659</v>
+      </c>
+      <c r="K13">
         <v>19250</v>
       </c>
     </row>
@@ -796,9 +960,21 @@
         <v>90000</v>
       </c>
       <c r="F14">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G14">
+        <v>3240</v>
+      </c>
+      <c r="H14">
+        <v>0.04534444444444444</v>
+      </c>
+      <c r="I14">
+        <v>4081</v>
+      </c>
+      <c r="J14">
+        <v>82679</v>
+      </c>
+      <c r="K14">
         <v>40500</v>
       </c>
     </row>
@@ -827,10 +1003,22 @@
         <v>190000</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G15">
-        <v>104500</v>
+        <v>6839.999999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.1610736842105263</v>
+      </c>
+      <c r="I15">
+        <v>30604</v>
+      </c>
+      <c r="J15">
+        <v>152556</v>
+      </c>
+      <c r="K15">
+        <v>73896</v>
       </c>
     </row>
     <row r="16">
@@ -858,9 +1046,21 @@
         <v>45000</v>
       </c>
       <c r="F16">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G16">
+        <v>1620</v>
+      </c>
+      <c r="H16">
+        <v>0.09068888888888889</v>
+      </c>
+      <c r="I16">
+        <v>4081</v>
+      </c>
+      <c r="J16">
+        <v>39299</v>
+      </c>
+      <c r="K16">
         <v>24750</v>
       </c>
     </row>
@@ -889,9 +1089,21 @@
         <v>100000</v>
       </c>
       <c r="F17">
+        <v>0.036</v>
+      </c>
+      <c r="G17">
+        <v>3600</v>
+      </c>
+      <c r="H17">
+        <v>0.15</v>
+      </c>
+      <c r="I17">
         <v>15000</v>
       </c>
-      <c r="G17">
+      <c r="J17">
+        <v>81400</v>
+      </c>
+      <c r="K17">
         <v>48840</v>
       </c>
     </row>
@@ -920,9 +1132,21 @@
         <v>35000</v>
       </c>
       <c r="F18">
-        <v>4081</v>
+        <v>0</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.1166</v>
+      </c>
+      <c r="I18">
+        <v>4081</v>
+      </c>
+      <c r="J18">
+        <v>30919</v>
+      </c>
+      <c r="K18">
         <v>19250</v>
       </c>
     </row>
@@ -954,7 +1178,19 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>72600</v>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.2719242424242424</v>
+      </c>
+      <c r="I19">
+        <v>35894</v>
+      </c>
+      <c r="J19">
+        <v>96106</v>
+      </c>
+      <c r="K19">
+        <v>36706</v>
       </c>
     </row>
     <row r="20">
@@ -982,9 +1218,21 @@
         <v>35000</v>
       </c>
       <c r="F20">
-        <v>4081</v>
+        <v>0</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0.1166</v>
+      </c>
+      <c r="I20">
+        <v>4081</v>
+      </c>
+      <c r="J20">
+        <v>30919</v>
+      </c>
+      <c r="K20">
         <v>19250</v>
       </c>
     </row>
@@ -1013,9 +1261,21 @@
         <v>38500</v>
       </c>
       <c r="F21">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G21">
+        <v>1386</v>
+      </c>
+      <c r="H21">
+        <v>0.106</v>
+      </c>
+      <c r="I21">
+        <v>4081</v>
+      </c>
+      <c r="J21">
+        <v>33033</v>
+      </c>
+      <c r="K21">
         <v>21175</v>
       </c>
     </row>
@@ -1044,9 +1304,21 @@
         <v>45000</v>
       </c>
       <c r="F22">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G22">
+        <v>1620</v>
+      </c>
+      <c r="H22">
+        <v>0.09068888888888889</v>
+      </c>
+      <c r="I22">
+        <v>4081</v>
+      </c>
+      <c r="J22">
+        <v>39299</v>
+      </c>
+      <c r="K22">
         <v>24750</v>
       </c>
     </row>
@@ -1075,10 +1347,22 @@
         <v>390000</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G23">
-        <v>214500</v>
+        <v>14040</v>
+      </c>
+      <c r="H23">
+        <v>0.1026666666666667</v>
+      </c>
+      <c r="I23">
+        <v>40040</v>
+      </c>
+      <c r="J23">
+        <v>335920</v>
+      </c>
+      <c r="K23">
+        <v>174460</v>
       </c>
     </row>
     <row r="24">
@@ -1106,9 +1390,21 @@
         <v>45000</v>
       </c>
       <c r="F24">
-        <v>4081</v>
+        <v>0</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0.09068888888888889</v>
+      </c>
+      <c r="I24">
+        <v>4081</v>
+      </c>
+      <c r="J24">
+        <v>40919</v>
+      </c>
+      <c r="K24">
         <v>24750</v>
       </c>
     </row>
@@ -1137,9 +1433,21 @@
         <v>38500</v>
       </c>
       <c r="F25">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G25">
+        <v>1386</v>
+      </c>
+      <c r="H25">
+        <v>0.106</v>
+      </c>
+      <c r="I25">
+        <v>4081</v>
+      </c>
+      <c r="J25">
+        <v>33033</v>
+      </c>
+      <c r="K25">
         <v>21175</v>
       </c>
     </row>
@@ -1168,9 +1476,21 @@
         <v>35000</v>
       </c>
       <c r="F26">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G26">
+        <v>1260</v>
+      </c>
+      <c r="H26">
+        <v>0.1166</v>
+      </c>
+      <c r="I26">
+        <v>4081</v>
+      </c>
+      <c r="J26">
+        <v>29659</v>
+      </c>
+      <c r="K26">
         <v>19250</v>
       </c>
     </row>
@@ -1199,9 +1519,21 @@
         <v>90000</v>
       </c>
       <c r="F27">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G27">
+        <v>3240</v>
+      </c>
+      <c r="H27">
+        <v>0.04534444444444444</v>
+      </c>
+      <c r="I27">
+        <v>4081</v>
+      </c>
+      <c r="J27">
+        <v>82679</v>
+      </c>
+      <c r="K27">
         <v>40500</v>
       </c>
     </row>
@@ -1230,21 +1562,38 @@
         <v>38500</v>
       </c>
       <c r="F28">
-        <v>4081</v>
+        <v>0</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0.106</v>
+      </c>
+      <c r="I28">
+        <v>4081</v>
+      </c>
+      <c r="J28">
+        <v>34419</v>
+      </c>
+      <c r="K28">
         <v>21175</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>01/11/2024 11:43</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sandra Giraldo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fondo - Ahorro - NA</t>
+          <t>Blower cabello largo</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1252,8 +1601,26 @@
           <t>Olga Arango</t>
         </is>
       </c>
+      <c r="E29">
+        <v>45000</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
       <c r="G29">
-        <v>-50000</v>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0.09068888888888889</v>
+      </c>
+      <c r="I29">
+        <v>4081</v>
+      </c>
+      <c r="J29">
+        <v>40919</v>
+      </c>
+      <c r="K29">
+        <v>24750</v>
       </c>
     </row>
     <row r="30">
@@ -1264,7 +1631,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fondo - Prestamo - NA</t>
+          <t>Fondo - Ahorro - NA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1272,8 +1639,8 @@
           <t>Olga Arango</t>
         </is>
       </c>
-      <c r="G30">
-        <v>-125000</v>
+      <c r="K30">
+        <v>-50000</v>
       </c>
     </row>
     <row r="31">
@@ -1284,7 +1651,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fondo - Intereses - NA</t>
+          <t>Fondo - Prestamo - NA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1292,19 +1659,19 @@
           <t>Olga Arango</t>
         </is>
       </c>
-      <c r="G31">
-        <v>-25000</v>
+      <c r="K31">
+        <v>-125000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - NA</t>
+          <t>Fondo - Intereses - NA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1312,19 +1679,19 @@
           <t>Olga Arango</t>
         </is>
       </c>
-      <c r="G32">
-        <v>-40000</v>
+      <c r="K32">
+        <v>-25000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo - NA</t>
+          <t>Fondo - Almuerzo - NA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1332,28 +1699,68 @@
           <t>Olga Arango</t>
         </is>
       </c>
-      <c r="G33">
-        <v>-15000</v>
+      <c r="K33">
+        <v>-40000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>2024-11-02</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Descuento - Anticipo - NA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Olga Arango</t>
+        </is>
+      </c>
+      <c r="K34">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>2024-11-09</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Fondo - desayuno - NA</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Olga Arango</t>
-        </is>
-      </c>
-      <c r="G34">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Olga Arango</t>
+        </is>
+      </c>
+      <c r="K35">
         <v>-15500</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Descuento - Producto - Productos de Color</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Olga Arango</t>
+        </is>
+      </c>
+      <c r="K36">
+        <v>-58905</v>
       </c>
     </row>
   </sheetData>
